--- a/Team-Data/2015-16/3-26-2015-16.xlsx
+++ b/Team-Data/2015-16/3-26-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,34 +736,34 @@
         <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.603</v>
+        <v>0.589</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
       </c>
       <c r="I2" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J2" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.46</v>
       </c>
       <c r="L2" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O2" t="n">
         <v>15.6</v>
@@ -705,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R2" t="n">
         <v>8.300000000000001</v>
@@ -714,16 +781,16 @@
         <v>33.4</v>
       </c>
       <c r="T2" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>5.7</v>
@@ -738,16 +805,16 @@
         <v>18.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
@@ -759,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -777,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
         <v>16</v>
@@ -816,7 +883,7 @@
         <v>30</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -875,10 +942,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O3" t="n">
         <v>18.1</v>
@@ -887,19 +954,19 @@
         <v>22.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R3" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S3" t="n">
         <v>33.5</v>
       </c>
       <c r="T3" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="U3" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
         <v>13.8</v>
@@ -908,31 +975,31 @@
         <v>9.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z3" t="n">
         <v>22.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
         <v>8</v>
@@ -965,10 +1032,10 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS3" t="n">
         <v>14</v>
@@ -977,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>12</v>
@@ -986,16 +1053,16 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB3" t="n">
         <v>5</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1100,13 @@
         <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" t="n">
-        <v>0.296</v>
+        <v>0.282</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,10 +1115,10 @@
         <v>38.3</v>
       </c>
       <c r="J4" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L4" t="n">
         <v>6.4</v>
@@ -1060,31 +1127,31 @@
         <v>17.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P4" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.4</v>
@@ -1093,22 +1160,22 @@
         <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
         <v>18.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
@@ -1123,13 +1190,13 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1138,10 +1205,10 @@
         <v>28</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
         <v>27</v>
@@ -1150,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1174,13 +1241,13 @@
         <v>15</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA4" t="n">
         <v>28</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -1215,106 +1282,106 @@
         <v>72</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.583</v>
+        <v>0.569</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L5" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M5" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.364</v>
+        <v>0.36</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R5" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
         <v>34.8</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.3</v>
+        <v>103</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM5" t="n">
         <v>3</v>
@@ -1329,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
@@ -1353,16 +1420,16 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.486</v>
+        <v>0.507</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,88 +1479,88 @@
         <v>38.7</v>
       </c>
       <c r="J6" t="n">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
         <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O6" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="T6" t="n">
         <v>46.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA6" t="n">
         <v>18.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.9</v>
+        <v>-1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
         <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
@@ -1502,7 +1569,7 @@
         <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1514,10 +1581,10 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1532,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1541,13 +1608,13 @@
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>51</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.718</v>
+        <v>0.708</v>
       </c>
       <c r="H7" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J7" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.461</v>
@@ -1603,34 +1670,34 @@
         <v>10.4</v>
       </c>
       <c r="M7" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="N7" t="n">
         <v>0.357</v>
       </c>
       <c r="O7" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P7" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="T7" t="n">
         <v>44.4</v>
       </c>
       <c r="U7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W7" t="n">
         <v>6.7</v>
@@ -1639,22 +1706,22 @@
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
         <v>20.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1672,28 +1739,28 @@
         <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
       </c>
       <c r="AP7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>24</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>10</v>
@@ -1705,25 +1772,25 @@
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
         <v>37</v>
       </c>
       <c r="G8" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J8" t="n">
         <v>84.7</v>
@@ -1785,37 +1852,37 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
         <v>17.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.796</v>
       </c>
       <c r="R8" t="n">
         <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X8" t="n">
         <v>3.7</v>
@@ -1824,28 +1891,28 @@
         <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1857,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1866,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
@@ -1884,10 +1951,10 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
         <v>2</v>
@@ -1908,10 +1975,10 @@
         <v>6</v>
       </c>
       <c r="BB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
         <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>0.417</v>
+        <v>0.425</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1961,7 +2028,7 @@
         <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L9" t="n">
         <v>7.9</v>
@@ -1970,31 +2037,31 @@
         <v>23.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T9" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U9" t="n">
         <v>22.5</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2006,19 +2073,19 @@
         <v>6.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
         <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>20</v>
@@ -2039,13 +2106,13 @@
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
         <v>24</v>
@@ -2069,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>18</v>
@@ -2084,16 +2151,16 @@
         <v>30</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
         <v>17</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.514</v>
+        <v>0.534</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.442</v>
       </c>
       <c r="L10" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.659</v>
+        <v>0.661</v>
       </c>
       <c r="R10" t="n">
         <v>12.5</v>
@@ -2173,7 +2240,7 @@
         <v>46.2</v>
       </c>
       <c r="U10" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V10" t="n">
         <v>13.6</v>
@@ -2182,7 +2249,7 @@
         <v>7.1</v>
       </c>
       <c r="X10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.3</v>
@@ -2191,19 +2258,19 @@
         <v>19.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB10" t="n">
         <v>102.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -2212,16 +2279,16 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2257,19 +2324,19 @@
         <v>10</v>
       </c>
       <c r="AW10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX10" t="n">
         <v>30</v>
       </c>
       <c r="AY10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="n">
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.901</v>
+        <v>0.903</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,19 +2389,19 @@
         <v>42.6</v>
       </c>
       <c r="J11" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L11" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="M11" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="O11" t="n">
         <v>17.2</v>
@@ -2343,22 +2410,22 @@
         <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S11" t="n">
         <v>36</v>
       </c>
       <c r="T11" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U11" t="n">
         <v>29.1</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
@@ -2370,19 +2437,19 @@
         <v>4.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA11" t="n">
         <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="AC11" t="n">
         <v>11.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2403,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>1</v>
@@ -2415,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW11" t="n">
         <v>8</v>
@@ -2448,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
         <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
         <v>10.7</v>
@@ -2516,7 +2583,7 @@
         <v>30.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
         <v>20.8</v>
@@ -2525,19 +2592,19 @@
         <v>29.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
         <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V12" t="n">
         <v>16.1</v>
@@ -2546,7 +2613,7 @@
         <v>10.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
@@ -2555,25 +2622,25 @@
         <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.3</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
         <v>10</v>
@@ -2585,7 +2652,7 @@
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2606,13 +2673,13 @@
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>27</v>
       </c>
       <c r="AT12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
@@ -2624,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
         <v>14</v>
       </c>
-      <c r="AY12" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>2</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -2683,13 +2750,13 @@
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J13" t="n">
-        <v>85.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L13" t="n">
         <v>8</v>
@@ -2698,7 +2765,7 @@
         <v>22.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O13" t="n">
         <v>17.6</v>
@@ -2713,16 +2780,16 @@
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T13" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U13" t="n">
         <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>9</v>
@@ -2734,22 +2801,22 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC13" t="n">
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>12</v>
@@ -2761,34 +2828,34 @@
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
         <v>11</v>
@@ -2800,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>4</v>
@@ -2815,10 +2882,10 @@
         <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>0.614</v>
+        <v>0.62</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L14" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O14" t="n">
         <v>18.6</v>
@@ -2910,7 +2977,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
@@ -2919,19 +2986,19 @@
         <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC14" t="n">
         <v>3.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2943,13 +3010,13 @@
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>8</v>
@@ -2970,7 +3037,7 @@
         <v>28</v>
       </c>
       <c r="AR14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS14" t="n">
         <v>18</v>
@@ -2985,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>0.211</v>
+        <v>0.208</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,7 +3117,7 @@
         <v>35.4</v>
       </c>
       <c r="J15" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.419</v>
@@ -3059,28 +3126,28 @@
         <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
         <v>18.3</v>
@@ -3089,7 +3156,7 @@
         <v>13.7</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X15" t="n">
         <v>4.3</v>
@@ -3098,19 +3165,19 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3128,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
         <v>30</v>
@@ -3158,7 +3225,7 @@
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
         <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.569</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J16" t="n">
         <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L16" t="n">
         <v>6.1</v>
@@ -3244,7 +3311,7 @@
         <v>18.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O16" t="n">
         <v>19.8</v>
@@ -3265,10 +3332,10 @@
         <v>41.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.9</v>
@@ -3277,7 +3344,7 @@
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21.9</v>
@@ -3286,13 +3353,13 @@
         <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3307,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3322,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
@@ -3331,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
@@ -3346,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="AV16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3355,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>25</v>
@@ -3364,10 +3431,10 @@
         <v>9</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
         <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.577</v>
+        <v>0.583</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I17" t="n">
         <v>38</v>
       </c>
       <c r="J17" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.468</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
         <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>0.332</v>
+        <v>0.336</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
@@ -3435,13 +3502,13 @@
         <v>23.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T17" t="n">
         <v>44.3</v>
@@ -3459,31 +3526,31 @@
         <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG17" t="n">
         <v>8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>14</v>
@@ -3504,16 +3571,16 @@
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>22</v>
@@ -3540,13 +3607,13 @@
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -3593,46 +3660,46 @@
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="O18" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P18" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
         <v>31.1</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
         <v>8.1</v>
@@ -3644,13 +3711,13 @@
         <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
         <v>-3.7</v>
@@ -3659,19 +3726,19 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3686,43 +3753,43 @@
         <v>30</v>
       </c>
       <c r="AN18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO18" t="n">
         <v>20</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>21</v>
       </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>23</v>
-      </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -3763,43 +3830,43 @@
         <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>0.319</v>
+        <v>0.333</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J19" t="n">
         <v>81.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L19" t="n">
         <v>5.3</v>
       </c>
       <c r="M19" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O19" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R19" t="n">
         <v>10.1</v>
@@ -3814,10 +3881,10 @@
         <v>23.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X19" t="n">
         <v>4.6</v>
@@ -3826,19 +3893,19 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>101.9</v>
+        <v>102.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3868,46 +3935,46 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -3942,34 +4009,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
         <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.371</v>
+        <v>0.366</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
         <v>86.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
         <v>8.5</v>
       </c>
       <c r="M20" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="N20" t="n">
         <v>0.354</v>
@@ -3981,22 +4048,22 @@
         <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
         <v>33.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.8</v>
@@ -4008,25 +4075,25 @@
         <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -4038,13 +4105,13 @@
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM20" t="n">
         <v>15</v>
@@ -4068,31 +4135,31 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>19</v>
       </c>
       <c r="AY20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -4127,64 +4194,64 @@
         <v>73</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.397</v>
+        <v>0.411</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M21" t="n">
         <v>21.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O21" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.806</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
         <v>33.9</v>
       </c>
       <c r="T21" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
@@ -4196,34 +4263,34 @@
         <v>18.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.1</v>
+        <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>18</v>
       </c>
       <c r="AI21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK21" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
@@ -4235,19 +4302,19 @@
         <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT21" t="n">
         <v>13</v>
@@ -4262,22 +4329,22 @@
         <v>30</v>
       </c>
       <c r="AX21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -4321,13 +4388,13 @@
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="J22" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L22" t="n">
         <v>8.1</v>
@@ -4336,19 +4403,19 @@
         <v>23.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R22" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S22" t="n">
         <v>35.6</v>
@@ -4357,10 +4424,10 @@
         <v>48.4</v>
       </c>
       <c r="U22" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4372,7 +4439,7 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
         <v>20.1</v>
@@ -4381,10 +4448,10 @@
         <v>110.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>4</v>
@@ -4396,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>2</v>
@@ -4411,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,19 +4490,19 @@
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>26</v>
@@ -4450,10 +4517,10 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -4491,34 +4558,34 @@
         <v>72</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.417</v>
+        <v>0.403</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J23" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
         <v>7.8</v>
       </c>
       <c r="M23" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O23" t="n">
         <v>15.3</v>
@@ -4530,52 +4597,52 @@
         <v>0.762</v>
       </c>
       <c r="R23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
         <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W23" t="n">
         <v>8.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
         <v>20.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>3</v>
@@ -4587,7 +4654,7 @@
         <v>5</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4608,7 +4675,7 @@
         <v>16</v>
       </c>
       <c r="AR23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS23" t="n">
         <v>17</v>
@@ -4617,19 +4684,19 @@
         <v>16</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>18</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -4685,10 +4752,10 @@
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.435</v>
@@ -4697,10 +4764,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O24" t="n">
         <v>15.7</v>
@@ -4709,25 +4776,25 @@
         <v>22.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S24" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V24" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
         <v>6.2</v>
@@ -4742,13 +4809,13 @@
         <v>19.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.3</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4775,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="n">
         <v>26</v>
@@ -4784,7 +4851,7 @@
         <v>27</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4796,16 +4863,16 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4817,7 +4884,7 @@
         <v>27</v>
       </c>
       <c r="BA24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -4873,37 +4940,37 @@
         <v>85.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L25" t="n">
         <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N25" t="n">
         <v>0.352</v>
       </c>
       <c r="O25" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T25" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
         <v>16.8</v>
@@ -4918,22 +4985,22 @@
         <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
         <v>100.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>-7.1</v>
+        <v>-7.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF25" t="n">
         <v>28</v>
@@ -4942,7 +5009,7 @@
         <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
         <v>23</v>
@@ -4966,40 +5033,40 @@
         <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>7</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU25" t="n">
         <v>25</v>
       </c>
       <c r="AV25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW25" t="n">
         <v>18</v>
       </c>
       <c r="AX25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ25" t="n">
         <v>30</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -5049,40 +5116,40 @@
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J26" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>10.4</v>
       </c>
       <c r="M26" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="N26" t="n">
         <v>0.365</v>
       </c>
       <c r="O26" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
         <v>0.747</v>
       </c>
       <c r="R26" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S26" t="n">
         <v>34</v>
       </c>
       <c r="T26" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U26" t="n">
         <v>21.1</v>
@@ -5091,7 +5158,7 @@
         <v>14.5</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
         <v>4.4</v>
@@ -5106,37 +5173,37 @@
         <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
         <v>9</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
@@ -5145,16 +5212,16 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>22</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>8</v>
@@ -5163,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>17</v>
@@ -5181,10 +5248,10 @@
         <v>26</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I27" t="n">
         <v>39.9</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
         <v>22.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O27" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R27" t="n">
         <v>10.6</v>
@@ -5279,10 +5346,10 @@
         <v>4.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA27" t="n">
         <v>22.1</v>
@@ -5291,16 +5358,16 @@
         <v>106.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5312,19 +5379,19 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
         <v>7</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5339,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5360,7 +5427,7 @@
         <v>18</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -5413,13 +5480,13 @@
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
         <v>7.1</v>
@@ -5428,37 +5495,37 @@
         <v>18.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
         <v>0.805</v>
       </c>
       <c r="R28" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="T28" t="n">
         <v>44.3</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V28" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y28" t="n">
         <v>3.9</v>
@@ -5470,13 +5537,13 @@
         <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5497,7 +5564,7 @@
         <v>22</v>
       </c>
       <c r="AK28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL28" t="n">
         <v>25</v>
@@ -5518,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>4</v>
@@ -5530,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
@@ -5548,7 +5615,7 @@
         <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -5595,31 +5662,31 @@
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L29" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M29" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N29" t="n">
         <v>0.368</v>
       </c>
       <c r="O29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P29" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.782</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
         <v>10.3</v>
@@ -5628,37 +5695,37 @@
         <v>33</v>
       </c>
       <c r="T29" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U29" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>7.8</v>
       </c>
       <c r="X29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y29" t="n">
         <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
@@ -5670,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5679,31 +5746,31 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ29" t="n">
         <v>12</v>
       </c>
       <c r="AR29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>17</v>
@@ -5712,16 +5779,16 @@
         <v>29</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
         <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -5765,55 +5832,55 @@
         <v>72</v>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.446</v>
       </c>
       <c r="L30" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M30" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="O30" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="P30" t="n">
         <v>23.5</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="O30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P30" t="n">
-        <v>23.3</v>
-      </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
         <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T30" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U30" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
@@ -5822,34 +5889,34 @@
         <v>7.8</v>
       </c>
       <c r="X30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>3</v>
@@ -5870,16 +5937,16 @@
         <v>16</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5888,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5900,16 +5967,16 @@
         <v>16</v>
       </c>
       <c r="AX30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
@@ -5944,97 +6011,97 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J31" t="n">
         <v>85.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L31" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O31" t="n">
         <v>16.4</v>
       </c>
       <c r="P31" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S31" t="n">
         <v>32.3</v>
       </c>
       <c r="T31" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W31" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC31" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6064,16 +6131,16 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS31" t="n">
         <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
@@ -6082,13 +6149,13 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>18</v>
@@ -6097,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="BC31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2015-16</t>
+          <t>2016-03-26</t>
         </is>
       </c>
     </row>
